--- a/AI Embeddedness Task list-Updated.xlsx
+++ b/AI Embeddedness Task list-Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working Blue Data\AI Product\AI Embedness\app\AI-Embeddedness\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working Blue Data\AI Product\AI Embedness\app\AI-Embeddedness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435A946-9FD5-40E4-A468-FBCFDE3ED2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04E485-18BB-48FE-8B7F-7C98C1C281F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,10 +1074,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1498,7 +1497,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2129,7 @@
       <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F11" t="s">
@@ -2166,13 +2165,13 @@
       <c r="P11" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" t="s">
         <v>138</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2225,13 +2224,13 @@
       <c r="P12" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" t="s">
         <v>142</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2284,13 +2283,13 @@
       <c r="P13" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" t="s">
         <v>145</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2402,13 +2401,13 @@
       <c r="P15" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" t="s">
         <v>147</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2579,13 +2578,13 @@
       <c r="P18" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" t="s">
         <v>151</v>
       </c>
       <c r="R18" t="s">
         <v>111</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2638,13 +2637,13 @@
       <c r="P19" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" t="s">
         <v>153</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2697,13 +2696,13 @@
       <c r="P20" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" t="s">
         <v>157</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2756,13 +2755,13 @@
       <c r="P21" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" t="s">
         <v>163</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2779,7 +2778,7 @@
       <c r="D22" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>158</v>
       </c>
       <c r="F22" t="s">
@@ -2815,13 +2814,13 @@
       <c r="P22" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" t="s">
         <v>160</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" t="s">
         <v>159</v>
       </c>
     </row>
